--- a/public/assets/files/excel_example_download.xlsx
+++ b/public/assets/files/excel_example_download.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a729b07f16a54e1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{1F32D8FF-9E12-4CB6-8C08-CEF19268F77B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CA9B10F3-D4AD-413A-8F8E-32B244A133AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D205B8-C8A8-4215-8F6E-9EF9EAAADEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{82449B8F-1FCE-4A9F-842A-244A6432DC57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13860" xr2:uid="{949677FA-7C95-4BAA-8CB1-510735069827}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>餐序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>菜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +39,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>範例1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>範例2</t>
-  </si>
-  <si>
-    <t>範例3</t>
+    <t>範例-早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-漢堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-1.6</t>
+  </si>
+  <si>
+    <t>範例-1.7</t>
+  </si>
+  <si>
+    <t>範例-1.8</t>
+  </si>
+  <si>
+    <t>範例-1.9</t>
+  </si>
+  <si>
+    <t>範例-1.10</t>
+  </si>
+  <si>
+    <t>範例-牛排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-拉麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-豬排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-沙拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例-水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,45 +450,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF5141C-7F9D-4553-8252-3B7B460891CD}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96415B9E-E88C-4018-92A9-4BA2106B3CD1}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/files/excel_example_download.xlsx
+++ b/public/assets/files/excel_example_download.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a729b07f16a54e1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya903\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D205B8-C8A8-4215-8F6E-9EF9EAAADEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{05D205B8-C8A8-4215-8F6E-9EF9EAAADEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{453B725B-C4FA-4C1F-B9D5-D2C70CE60AB3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13860" xr2:uid="{949677FA-7C95-4BAA-8CB1-510735069827}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>餐序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,25 +45,6 @@
   <si>
     <t>範例-漢堡</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>範例-1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>範例-1.6</t>
-  </si>
-  <si>
-    <t>範例-1.7</t>
-  </si>
-  <si>
-    <t>範例-1.8</t>
-  </si>
-  <si>
-    <t>範例-1.9</t>
-  </si>
-  <si>
-    <t>範例-1.10</t>
   </si>
   <si>
     <t>範例-牛排</t>
@@ -454,7 +435,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -482,51 +463,51 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
         <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
